--- a/final_response_curves.xlsx
+++ b/final_response_curves.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ananthraj.v\langraph_agent\Data_07Nov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrctab-my.sharepoint.com/personal/ananthraj_v_course5i_com/Documents/Documents/c5i_sim_tool/Data_07Nov/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2050DC4D-3B73-40DA-845F-EA5D4A715C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{2050DC4D-3B73-40DA-845F-EA5D4A715C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A8139BD-9594-43A7-A600-1463978134BE}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="response_curves" sheetId="1" r:id="rId1"/>
@@ -227,6 +227,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,10 +523,10 @@
   <dimension ref="A1:E2410"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2402" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2409" sqref="D2409"/>
+      <selection pane="bottomRight" activeCell="C118" sqref="A1:E2410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2255,21 +2259,21 @@
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
       </c>
       <c r="D102">
-        <v>5129318.9999999991</v>
+        <v>63044.000000000007</v>
       </c>
       <c r="E102">
-        <v>10872569.22477976</v>
+        <v>125718.5236697419</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
@@ -2278,15 +2282,15 @@
         <v>28</v>
       </c>
       <c r="D103">
-        <v>5180612.1899999985</v>
+        <v>5129318.9999999991</v>
       </c>
       <c r="E103">
-        <v>11024980.08883539</v>
+        <v>10872569.22477976</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
@@ -2295,15 +2299,15 @@
         <v>28</v>
       </c>
       <c r="D104">
-        <v>5231905.379999999</v>
+        <v>5180612.1899999985</v>
       </c>
       <c r="E104">
-        <v>11177412.96959414</v>
+        <v>11024980.08883539</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
@@ -2312,15 +2316,15 @@
         <v>28</v>
       </c>
       <c r="D105">
-        <v>5283198.5699999994</v>
+        <v>5231905.379999999</v>
       </c>
       <c r="E105">
-        <v>11329853.521246171</v>
+        <v>11177412.96959414</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
@@ -2329,15 +2333,15 @@
         <v>28</v>
       </c>
       <c r="D106">
-        <v>5334491.7599999988</v>
+        <v>5283198.5699999994</v>
       </c>
       <c r="E106">
-        <v>11482287.6843591</v>
+        <v>11329853.521246171</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -2346,15 +2350,15 @@
         <v>28</v>
       </c>
       <c r="D107">
-        <v>5385784.9499999993</v>
+        <v>5334491.7599999988</v>
       </c>
       <c r="E107">
-        <v>11634701.681452081</v>
+        <v>11482287.6843591</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
@@ -2363,15 +2367,15 @@
         <v>28</v>
       </c>
       <c r="D108">
-        <v>5437078.1399999997</v>
+        <v>5385784.9499999993</v>
       </c>
       <c r="E108">
-        <v>11787082.01263185</v>
+        <v>11634701.681452081</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -2380,15 +2384,15 @@
         <v>28</v>
       </c>
       <c r="D109">
-        <v>5488371.3299999991</v>
+        <v>5437078.1399999997</v>
       </c>
       <c r="E109">
-        <v>11939415.451289929</v>
+        <v>11787082.01263185</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
@@ -2397,15 +2401,15 @@
         <v>28</v>
       </c>
       <c r="D110">
-        <v>5539664.5199999996</v>
+        <v>5488371.3299999991</v>
       </c>
       <c r="E110">
-        <v>12091689.039860221</v>
+        <v>11939415.451289929</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
@@ -2414,15 +2418,15 @@
         <v>28</v>
       </c>
       <c r="D111">
-        <v>5590957.709999999</v>
+        <v>5539664.5199999996</v>
       </c>
       <c r="E111">
-        <v>12243890.08563609</v>
+        <v>12091689.039860221</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
@@ -2431,15 +2435,15 @@
         <v>28</v>
       </c>
       <c r="D112">
-        <v>5642250.8999999994</v>
+        <v>5590957.709999999</v>
       </c>
       <c r="E112">
-        <v>12396006.15664628</v>
+        <v>12243890.08563609</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>1.1100000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
@@ -2448,15 +2452,15 @@
         <v>28</v>
       </c>
       <c r="D113">
-        <v>5693544.0899999999</v>
+        <v>5642250.8999999994</v>
       </c>
       <c r="E113">
-        <v>12548025.077588851</v>
+        <v>12396006.15664628</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>1.1200000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
@@ -2465,15 +2469,15 @@
         <v>28</v>
       </c>
       <c r="D114">
-        <v>5744837.2799999993</v>
+        <v>5693544.0899999999</v>
       </c>
       <c r="E114">
-        <v>12699934.92582228</v>
+        <v>12548025.077588851</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>1.1299999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
@@ -2482,15 +2486,15 @@
         <v>28</v>
       </c>
       <c r="D115">
-        <v>5796130.4699999988</v>
+        <v>5744837.2799999993</v>
       </c>
       <c r="E115">
-        <v>12851724.027413219</v>
+        <v>12699934.92582228</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>1.1399999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
@@ -2499,15 +2503,15 @@
         <v>28</v>
       </c>
       <c r="D116">
-        <v>5847423.6599999983</v>
+        <v>5796130.4699999988</v>
       </c>
       <c r="E116">
-        <v>13003380.953239789</v>
+        <v>12851724.027413219</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>1.1499999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
@@ -2516,15 +2520,15 @@
         <v>28</v>
       </c>
       <c r="D117">
-        <v>5898716.8499999987</v>
+        <v>5847423.6599999983</v>
       </c>
       <c r="E117">
-        <v>13154894.51515007</v>
+        <v>13003380.953239789</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>1.1599999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
@@ -2533,15 +2537,15 @@
         <v>28</v>
       </c>
       <c r="D118">
-        <v>5950010.0399999982</v>
+        <v>5898716.8499999987</v>
       </c>
       <c r="E118">
-        <v>13306253.76217477</v>
+        <v>13154894.51515007</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
@@ -2550,15 +2554,15 @@
         <v>28</v>
       </c>
       <c r="D119">
-        <v>6001303.2299999986</v>
+        <v>5950010.0399999982</v>
       </c>
       <c r="E119">
-        <v>13457447.9767935</v>
+        <v>13306253.76217477</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
@@ -2567,15 +2571,15 @@
         <v>28</v>
       </c>
       <c r="D120">
-        <v>6052596.419999999</v>
+        <v>6001303.2299999986</v>
       </c>
       <c r="E120">
-        <v>13608466.67125389</v>
+        <v>13457447.9767935</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
@@ -2584,15 +2588,15 @@
         <v>28</v>
       </c>
       <c r="D121">
-        <v>6103889.6099999975</v>
+        <v>6052596.419999999</v>
       </c>
       <c r="E121">
-        <v>13759299.583942831</v>
+        <v>13608466.67125389</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
@@ -2601,15 +2605,15 @@
         <v>28</v>
       </c>
       <c r="D122">
-        <v>6155182.7999999989</v>
+        <v>6103889.6099999975</v>
       </c>
       <c r="E122">
-        <v>13909936.67580926</v>
+        <v>13759299.583942831</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
@@ -2618,15 +2622,15 @@
         <v>28</v>
       </c>
       <c r="D123">
-        <v>6206475.9899999984</v>
+        <v>6155182.7999999989</v>
       </c>
       <c r="E123">
-        <v>14060368.1268376</v>
+        <v>13909936.67580926</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
@@ -2635,15 +2639,15 @@
         <v>28</v>
       </c>
       <c r="D124">
-        <v>6257769.1799999988</v>
+        <v>6206475.9899999984</v>
       </c>
       <c r="E124">
-        <v>14210584.3325714</v>
+        <v>14060368.1268376</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
@@ -2652,15 +2656,15 @@
         <v>28</v>
       </c>
       <c r="D125">
-        <v>6309062.3699999992</v>
+        <v>6257769.1799999988</v>
       </c>
       <c r="E125">
-        <v>14360575.90068634</v>
+        <v>14210584.3325714</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
@@ -2669,15 +2673,15 @@
         <v>28</v>
       </c>
       <c r="D126">
-        <v>6360355.5599999987</v>
+        <v>6309062.3699999992</v>
       </c>
       <c r="E126">
-        <v>14510333.647612041</v>
+        <v>14360575.90068634</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
@@ -2686,15 +2690,15 @@
         <v>28</v>
       </c>
       <c r="D127">
-        <v>6411648.7499999991</v>
+        <v>6360355.5599999987</v>
       </c>
       <c r="E127">
-        <v>14659848.595201939</v>
+        <v>14510333.647612041</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
@@ -2703,15 +2707,15 @@
         <v>28</v>
       </c>
       <c r="D128">
-        <v>6462941.9399999985</v>
+        <v>6411648.7499999991</v>
       </c>
       <c r="E128">
-        <v>14809111.967450731</v>
+        <v>14659848.595201939</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
@@ -2720,15 +2724,15 @@
         <v>28</v>
       </c>
       <c r="D129">
-        <v>6514235.129999999</v>
+        <v>6462941.9399999985</v>
       </c>
       <c r="E129">
-        <v>14958115.187258489</v>
+        <v>14809111.967450731</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
@@ -2737,15 +2741,15 @@
         <v>28</v>
       </c>
       <c r="D130">
-        <v>6565528.3199999994</v>
+        <v>6514235.129999999</v>
       </c>
       <c r="E130">
-        <v>15106849.873241181</v>
+        <v>14958115.187258489</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
@@ -2754,15 +2758,15 @@
         <v>28</v>
       </c>
       <c r="D131">
-        <v>6616821.5099999988</v>
+        <v>6565528.3199999994</v>
       </c>
       <c r="E131">
-        <v>15255307.836586639</v>
+        <v>15106849.873241181</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
@@ -2771,15 +2775,15 @@
         <v>28</v>
       </c>
       <c r="D132">
-        <v>6668114.6999999993</v>
+        <v>6616821.5099999988</v>
       </c>
       <c r="E132">
-        <v>15403481.077955529</v>
+        <v>15255307.836586639</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
@@ -2788,15 +2792,15 @@
         <v>28</v>
       </c>
       <c r="D133">
-        <v>6719407.8899999987</v>
+        <v>6668114.6999999993</v>
       </c>
       <c r="E133">
-        <v>15551361.784426721</v>
+        <v>15403481.077955529</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
@@ -2805,15 +2809,15 @@
         <v>28</v>
       </c>
       <c r="D134">
-        <v>6770701.0799999991</v>
+        <v>6719407.8899999987</v>
       </c>
       <c r="E134">
-        <v>15698942.326486399</v>
+        <v>15551361.784426721</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
@@ -2822,15 +2826,15 @@
         <v>28</v>
       </c>
       <c r="D135">
-        <v>6821994.2699999996</v>
+        <v>6770701.0799999991</v>
       </c>
       <c r="E135">
-        <v>15846215.25506039</v>
+        <v>15698942.326486399</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
@@ -2839,15 +2843,15 @@
         <v>28</v>
       </c>
       <c r="D136">
-        <v>6873287.459999999</v>
+        <v>6821994.2699999996</v>
       </c>
       <c r="E136">
-        <v>15993173.29858903</v>
+        <v>15846215.25506039</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
@@ -2856,15 +2860,15 @@
         <v>28</v>
       </c>
       <c r="D137">
-        <v>6924580.6499999994</v>
+        <v>6873287.459999999</v>
       </c>
       <c r="E137">
-        <v>16139809.360144131</v>
+        <v>15993173.29858903</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
@@ -2873,15 +2877,15 @@
         <v>28</v>
       </c>
       <c r="D138">
-        <v>6975873.8399999989</v>
+        <v>6924580.6499999994</v>
       </c>
       <c r="E138">
-        <v>16286116.51458735</v>
+        <v>16139809.360144131</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
@@ -2890,15 +2894,15 @@
         <v>28</v>
       </c>
       <c r="D139">
-        <v>7027167.0299999993</v>
+        <v>6975873.8399999989</v>
       </c>
       <c r="E139">
-        <v>16432088.005769471</v>
+        <v>16286116.51458735</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
@@ -2907,15 +2911,15 @@
         <v>28</v>
       </c>
       <c r="D140">
-        <v>7078460.2199999979</v>
+        <v>7027167.0299999993</v>
       </c>
       <c r="E140">
-        <v>16577717.24377002</v>
+        <v>16432088.005769471</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="B141" t="s">
         <v>8</v>
@@ -2924,15 +2928,15 @@
         <v>28</v>
       </c>
       <c r="D141">
-        <v>7129753.4099999983</v>
+        <v>7078460.2199999979</v>
       </c>
       <c r="E141">
-        <v>16722997.80217669</v>
+        <v>16577717.24377002</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
@@ -2941,15 +2945,15 @@
         <v>28</v>
       </c>
       <c r="D142">
-        <v>7181046.5999999987</v>
+        <v>7129753.4099999983</v>
       </c>
       <c r="E142">
-        <v>16867923.41540407</v>
+        <v>16722997.80217669</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
@@ -2958,15 +2962,15 @@
         <v>28</v>
       </c>
       <c r="D143">
-        <v>7232339.7899999982</v>
+        <v>7181046.5999999987</v>
       </c>
       <c r="E143">
-        <v>17012487.976050928</v>
+        <v>16867923.41540407</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
@@ -2975,15 +2979,15 @@
         <v>28</v>
       </c>
       <c r="D144">
-        <v>7283632.9799999986</v>
+        <v>7232339.7899999982</v>
       </c>
       <c r="E144">
-        <v>17156685.532295961</v>
+        <v>17012487.976050928</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
@@ -2992,15 +2996,15 @@
         <v>28</v>
       </c>
       <c r="D145">
-        <v>7334926.1699999981</v>
+        <v>7283632.9799999986</v>
       </c>
       <c r="E145">
-        <v>17300510.28533097</v>
+        <v>17156685.532295961</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
@@ -3009,15 +3013,15 @@
         <v>28</v>
       </c>
       <c r="D146">
-        <v>7386219.3599999975</v>
+        <v>7334926.1699999981</v>
       </c>
       <c r="E146">
-        <v>17443956.58683132</v>
+        <v>17300510.28533097</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
@@ -3026,15 +3030,15 @@
         <v>28</v>
       </c>
       <c r="D147">
-        <v>7437512.5499999989</v>
+        <v>7386219.3599999975</v>
       </c>
       <c r="E147">
-        <v>17587018.93646314</v>
+        <v>17443956.58683132</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
@@ -3043,15 +3047,15 @@
         <v>28</v>
       </c>
       <c r="D148">
-        <v>7488805.7399999984</v>
+        <v>7437512.5499999989</v>
       </c>
       <c r="E148">
-        <v>17729691.979426481</v>
+        <v>17587018.93646314</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
@@ -3060,15 +3064,15 @@
         <v>28</v>
       </c>
       <c r="D149">
-        <v>7540098.9299999988</v>
+        <v>7488805.7399999984</v>
       </c>
       <c r="E149">
-        <v>17871970.50403434</v>
+        <v>17729691.979426481</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
@@ -3077,15 +3081,15 @@
         <v>28</v>
       </c>
       <c r="D150">
-        <v>7591392.1199999982</v>
+        <v>7540098.9299999988</v>
       </c>
       <c r="E150">
-        <v>18013849.439326789</v>
+        <v>17871970.50403434</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="B151" t="s">
         <v>8</v>
@@ -3094,15 +3098,15 @@
         <v>28</v>
       </c>
       <c r="D151">
-        <v>7642685.3099999987</v>
+        <v>7591392.1199999982</v>
       </c>
       <c r="E151">
-        <v>18155323.852719799</v>
+        <v>18013849.439326789</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
@@ -3111,15 +3115,15 @@
         <v>28</v>
       </c>
       <c r="D152">
-        <v>7693978.4999999981</v>
+        <v>7642685.3099999987</v>
       </c>
       <c r="E152">
-        <v>18296388.947688252</v>
+        <v>18155323.852719799</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
@@ -3128,15 +3132,15 @@
         <v>28</v>
       </c>
       <c r="D153">
-        <v>7745271.6899999985</v>
+        <v>7693978.4999999981</v>
       </c>
       <c r="E153">
-        <v>18437040.061482891</v>
+        <v>18296388.947688252</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
@@ -3145,15 +3149,15 @@
         <v>28</v>
       </c>
       <c r="D154">
-        <v>7796564.879999999</v>
+        <v>7745271.6899999985</v>
       </c>
       <c r="E154">
-        <v>18577272.662880361</v>
+        <v>18437040.061482891</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="B155" t="s">
         <v>8</v>
@@ -3162,15 +3166,15 @@
         <v>28</v>
       </c>
       <c r="D155">
-        <v>7847858.0699999984</v>
+        <v>7796564.879999999</v>
       </c>
       <c r="E155">
-        <v>18717082.349966209</v>
+        <v>18577272.662880361</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="B156" t="s">
         <v>8</v>
@@ -3179,15 +3183,15 @@
         <v>28</v>
       </c>
       <c r="D156">
-        <v>7899151.2599999988</v>
+        <v>7847858.0699999984</v>
       </c>
       <c r="E156">
-        <v>18856464.84795031</v>
+        <v>18717082.349966209</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="B157" t="s">
         <v>8</v>
@@ -3196,15 +3200,15 @@
         <v>28</v>
       </c>
       <c r="D157">
-        <v>7950444.4499999983</v>
+        <v>7899151.2599999988</v>
       </c>
       <c r="E157">
-        <v>18995416.007014111</v>
+        <v>18856464.84795031</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="B158" t="s">
         <v>8</v>
@@ -3213,15 +3217,15 @@
         <v>28</v>
       </c>
       <c r="D158">
-        <v>8001737.6399999987</v>
+        <v>7950444.4499999983</v>
       </c>
       <c r="E158">
-        <v>19133931.800189581</v>
+        <v>18995416.007014111</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
@@ -3230,15 +3234,15 @@
         <v>28</v>
       </c>
       <c r="D159">
-        <v>8053030.8299999991</v>
+        <v>8001737.6399999987</v>
       </c>
       <c r="E159">
-        <v>19272008.321269039</v>
+        <v>19133931.800189581</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="B160" t="s">
         <v>8</v>
@@ -3247,15 +3251,15 @@
         <v>28</v>
       </c>
       <c r="D160">
-        <v>8104324.0199999986</v>
+        <v>8053030.8299999991</v>
       </c>
       <c r="E160">
-        <v>19409641.782745838</v>
+        <v>19272008.321269039</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="B161" t="s">
         <v>8</v>
@@ -3264,15 +3268,15 @@
         <v>28</v>
       </c>
       <c r="D161">
-        <v>8155617.209999999</v>
+        <v>8104324.0199999986</v>
       </c>
       <c r="E161">
-        <v>19546828.513785109</v>
+        <v>19409641.782745838</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
@@ -3281,15 +3285,15 @@
         <v>28</v>
       </c>
       <c r="D162">
-        <v>8206910.3999999994</v>
+        <v>8155617.209999999</v>
       </c>
       <c r="E162">
-        <v>19683564.95822446</v>
+        <v>19546828.513785109</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="B163" t="s">
         <v>8</v>
@@ -3298,15 +3302,15 @@
         <v>28</v>
       </c>
       <c r="D163">
-        <v>8258203.5899999989</v>
+        <v>8206910.3999999994</v>
       </c>
       <c r="E163">
-        <v>19819847.67260398</v>
+        <v>19683564.95822446</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="B164" t="s">
         <v>8</v>
@@ -3315,15 +3319,15 @@
         <v>28</v>
       </c>
       <c r="D164">
-        <v>8309496.7799999993</v>
+        <v>8258203.5899999989</v>
       </c>
       <c r="E164">
-        <v>19955673.324225388</v>
+        <v>19819847.67260398</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="B165" t="s">
         <v>8</v>
@@ -3332,15 +3336,15 @@
         <v>28</v>
       </c>
       <c r="D165">
-        <v>8360789.9699999979</v>
+        <v>8309496.7799999993</v>
       </c>
       <c r="E165">
-        <v>20091038.689239621</v>
+        <v>19955673.324225388</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="B166" t="s">
         <v>8</v>
@@ -3349,15 +3353,15 @@
         <v>28</v>
       </c>
       <c r="D166">
-        <v>8412083.1599999983</v>
+        <v>8360789.9699999979</v>
       </c>
       <c r="E166">
-        <v>20225940.650762711</v>
+        <v>20091038.689239621</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="B167" t="s">
         <v>8</v>
@@ -3366,15 +3370,15 @@
         <v>28</v>
       </c>
       <c r="D167">
-        <v>8463376.3499999978</v>
+        <v>8412083.1599999983</v>
       </c>
       <c r="E167">
-        <v>20360376.197019581</v>
+        <v>20225940.650762711</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="B168" t="s">
         <v>8</v>
@@ -3383,15 +3387,15 @@
         <v>28</v>
       </c>
       <c r="D168">
-        <v>8514669.5399999972</v>
+        <v>8463376.3499999978</v>
       </c>
       <c r="E168">
-        <v>20494342.419515122</v>
+        <v>20360376.197019581</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="B169" t="s">
         <v>8</v>
@@ -3400,15 +3404,15 @@
         <v>28</v>
       </c>
       <c r="D169">
-        <v>8565962.7299999986</v>
+        <v>8514669.5399999972</v>
       </c>
       <c r="E169">
-        <v>20627836.51123238</v>
+        <v>20494342.419515122</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
@@ -3417,15 +3421,15 @@
         <v>28</v>
       </c>
       <c r="D170">
-        <v>8617255.9199999981</v>
+        <v>8565962.7299999986</v>
       </c>
       <c r="E170">
-        <v>20760855.764857549</v>
+        <v>20627836.51123238</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="B171" t="s">
         <v>8</v>
@@ -3434,15 +3438,15 @@
         <v>28</v>
       </c>
       <c r="D171">
-        <v>8668549.1099999975</v>
+        <v>8617255.9199999981</v>
       </c>
       <c r="E171">
-        <v>20893397.57103109</v>
+        <v>20760855.764857549</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="B172" t="s">
         <v>8</v>
@@ -3451,15 +3455,15 @@
         <v>28</v>
       </c>
       <c r="D172">
-        <v>8719842.2999999989</v>
+        <v>8668549.1099999975</v>
       </c>
       <c r="E172">
-        <v>21025459.416624989</v>
+        <v>20893397.57103109</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="B173" t="s">
         <v>8</v>
@@ -3468,15 +3472,15 @@
         <v>28</v>
       </c>
       <c r="D173">
-        <v>8771135.4899999984</v>
+        <v>8719842.2999999989</v>
       </c>
       <c r="E173">
-        <v>21157038.883045468</v>
+        <v>21025459.416624989</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
@@ -3485,15 +3489,15 @@
         <v>28</v>
       </c>
       <c r="D174">
-        <v>8822428.6799999978</v>
+        <v>8771135.4899999984</v>
       </c>
       <c r="E174">
-        <v>21288133.644561041</v>
+        <v>21157038.883045468</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
@@ -3502,15 +3506,15 @@
         <v>28</v>
       </c>
       <c r="D175">
-        <v>8873721.8699999992</v>
+        <v>8822428.6799999978</v>
       </c>
       <c r="E175">
-        <v>21418741.4666554</v>
+        <v>21288133.644561041</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
@@ -3519,15 +3523,15 @@
         <v>28</v>
       </c>
       <c r="D176">
-        <v>8925015.0599999987</v>
+        <v>8873721.8699999992</v>
       </c>
       <c r="E176">
-        <v>21548860.204404861</v>
+        <v>21418741.4666554</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="B177" t="s">
         <v>8</v>
@@ -3536,15 +3540,15 @@
         <v>28</v>
       </c>
       <c r="D177">
-        <v>8976308.2499999981</v>
+        <v>8925015.0599999987</v>
       </c>
       <c r="E177">
-        <v>21678487.800880089</v>
+        <v>21548860.204404861</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="B178" t="s">
         <v>8</v>
@@ -3553,15 +3557,15 @@
         <v>28</v>
       </c>
       <c r="D178">
-        <v>9027601.4399999976</v>
+        <v>8976308.2499999981</v>
       </c>
       <c r="E178">
-        <v>21807622.28557156</v>
+        <v>21678487.800880089</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="B179" t="s">
         <v>8</v>
@@ -3570,15 +3574,15 @@
         <v>28</v>
       </c>
       <c r="D179">
-        <v>9078894.629999999</v>
+        <v>9027601.4399999976</v>
       </c>
       <c r="E179">
-        <v>21936261.77283873</v>
+        <v>21807622.28557156</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="B180" t="s">
         <v>8</v>
@@ -3587,15 +3591,15 @@
         <v>28</v>
       </c>
       <c r="D180">
-        <v>9130187.8199999984</v>
+        <v>9078894.629999999</v>
       </c>
       <c r="E180">
-        <v>22064404.460382219</v>
+        <v>21936261.77283873</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="B181" t="s">
         <v>8</v>
@@ -3604,15 +3608,15 @@
         <v>28</v>
       </c>
       <c r="D181">
-        <v>9181481.0099999979</v>
+        <v>9130187.8199999984</v>
       </c>
       <c r="E181">
-        <v>22192048.62773912</v>
+        <v>22064404.460382219</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="B182" t="s">
         <v>8</v>
@@ -3621,15 +3625,15 @@
         <v>28</v>
       </c>
       <c r="D182">
-        <v>9232774.1999999993</v>
+        <v>9181481.0099999979</v>
       </c>
       <c r="E182">
-        <v>22319192.63480065</v>
+        <v>22192048.62773912</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="B183" t="s">
         <v>8</v>
@@ -3638,15 +3642,15 @@
         <v>28</v>
       </c>
       <c r="D183">
-        <v>9284067.3899999987</v>
+        <v>9232774.1999999993</v>
       </c>
       <c r="E183">
-        <v>22445834.92035225</v>
+        <v>22319192.63480065</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="B184" t="s">
         <v>8</v>
@@ -3655,15 +3659,15 @@
         <v>28</v>
       </c>
       <c r="D184">
-        <v>9335360.5799999982</v>
+        <v>9284067.3899999987</v>
       </c>
       <c r="E184">
-        <v>22571974.000635531</v>
+        <v>22445834.92035225</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="B185" t="s">
         <v>8</v>
@@ -3672,15 +3676,15 @@
         <v>28</v>
       </c>
       <c r="D185">
-        <v>9386653.7699999996</v>
+        <v>9335360.5799999982</v>
       </c>
       <c r="E185">
-        <v>22697608.467931852</v>
+        <v>22571974.000635531</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
@@ -3689,15 +3693,15 @@
         <v>28</v>
       </c>
       <c r="D186">
-        <v>9437946.959999999</v>
+        <v>9386653.7699999996</v>
       </c>
       <c r="E186">
-        <v>22822736.989167321</v>
+        <v>22697608.467931852</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="B187" t="s">
         <v>8</v>
@@ -3706,15 +3710,15 @@
         <v>28</v>
       </c>
       <c r="D187">
-        <v>9489240.1499999985</v>
+        <v>9437946.959999999</v>
       </c>
       <c r="E187">
-        <v>22947358.304538779</v>
+        <v>22822736.989167321</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="B188" t="s">
         <v>8</v>
@@ -3723,15 +3727,15 @@
         <v>28</v>
       </c>
       <c r="D188">
-        <v>9540533.339999998</v>
+        <v>9489240.1499999985</v>
       </c>
       <c r="E188">
-        <v>23071471.226160571</v>
+        <v>22947358.304538779</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="B189" t="s">
         <v>8</v>
@@ -3740,15 +3744,15 @@
         <v>28</v>
       </c>
       <c r="D189">
-        <v>9591826.5299999993</v>
+        <v>9540533.339999998</v>
       </c>
       <c r="E189">
-        <v>23195074.63673174</v>
+        <v>23071471.226160571</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="B190" t="s">
         <v>8</v>
@@ -3757,15 +3761,15 @@
         <v>28</v>
       </c>
       <c r="D190">
-        <v>9643119.7199999969</v>
+        <v>9591826.5299999993</v>
       </c>
       <c r="E190">
-        <v>23318167.488223389</v>
+        <v>23195074.63673174</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="B191" t="s">
         <v>8</v>
@@ -3774,15 +3778,15 @@
         <v>28</v>
       </c>
       <c r="D191">
-        <v>9694412.9099999983</v>
+        <v>9643119.7199999969</v>
       </c>
       <c r="E191">
-        <v>23440748.800586019</v>
+        <v>23318167.488223389</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
@@ -3791,15 +3795,15 @@
         <v>28</v>
       </c>
       <c r="D192">
-        <v>9745706.0999999978</v>
+        <v>9694412.9099999983</v>
       </c>
       <c r="E192">
-        <v>23562817.66047642</v>
+        <v>23440748.800586019</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
@@ -3808,15 +3812,15 @@
         <v>28</v>
       </c>
       <c r="D193">
-        <v>9796999.2899999972</v>
+        <v>9745706.0999999978</v>
       </c>
       <c r="E193">
-        <v>23684373.220003869</v>
+        <v>23562817.66047642</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="B194" t="s">
         <v>8</v>
@@ -3825,15 +3829,15 @@
         <v>28</v>
       </c>
       <c r="D194">
-        <v>9848292.4799999986</v>
+        <v>9796999.2899999972</v>
       </c>
       <c r="E194">
-        <v>23805414.695495479</v>
+        <v>23684373.220003869</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
@@ -3842,15 +3846,15 @@
         <v>28</v>
       </c>
       <c r="D195">
-        <v>9899585.6699999981</v>
+        <v>9848292.4799999986</v>
       </c>
       <c r="E195">
-        <v>23925941.366280269</v>
+        <v>23805414.695495479</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="B196" t="s">
         <v>8</v>
@@ -3859,15 +3863,15 @@
         <v>28</v>
       </c>
       <c r="D196">
-        <v>9950878.8599999975</v>
+        <v>9899585.6699999981</v>
       </c>
       <c r="E196">
-        <v>24045952.573491871</v>
+        <v>23925941.366280269</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="B197" t="s">
         <v>8</v>
@@ -3876,15 +3880,15 @@
         <v>28</v>
       </c>
       <c r="D197">
-        <v>10002172.050000001</v>
+        <v>9950878.8599999975</v>
       </c>
       <c r="E197">
-        <v>24165447.718889449</v>
+        <v>24045952.573491871</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="B198" t="s">
         <v>8</v>
@@ -3893,15 +3897,15 @@
         <v>28</v>
       </c>
       <c r="D198">
-        <v>10053465.24</v>
+        <v>10002172.050000001</v>
       </c>
       <c r="E198">
-        <v>24284426.263696589</v>
+        <v>24165447.718889449</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="B199" t="s">
         <v>8</v>
@@ -3910,15 +3914,15 @@
         <v>28</v>
       </c>
       <c r="D199">
-        <v>10104758.43</v>
+        <v>10053465.24</v>
       </c>
       <c r="E199">
-        <v>24402887.727458108</v>
+        <v>24284426.263696589</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="B200" t="s">
         <v>8</v>
@@ -3927,15 +3931,15 @@
         <v>28</v>
       </c>
       <c r="D200">
-        <v>10156051.619999999</v>
+        <v>10104758.43</v>
       </c>
       <c r="E200">
-        <v>24520831.686914239</v>
+        <v>24402887.727458108</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="B201" t="s">
         <v>8</v>
@@ -3944,15 +3948,15 @@
         <v>28</v>
       </c>
       <c r="D201">
-        <v>10207344.810000001</v>
+        <v>10156051.619999999</v>
       </c>
       <c r="E201">
-        <v>24638257.774892159</v>
+        <v>24520831.686914239</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="B202" t="s">
         <v>8</v>
@@ -3961,15 +3965,15 @@
         <v>28</v>
       </c>
       <c r="D202">
-        <v>10258638</v>
+        <v>10207344.810000001</v>
       </c>
       <c r="E202">
-        <v>24755165.679214541</v>
+        <v>24638257.774892159</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>2.0099999999999998</v>
+        <v>2</v>
       </c>
       <c r="B203" t="s">
         <v>8</v>
@@ -3978,15 +3982,15 @@
         <v>28</v>
       </c>
       <c r="D203">
-        <v>10309931.189999999</v>
+        <v>10258638</v>
       </c>
       <c r="E203">
-        <v>24871555.141624931</v>
+        <v>24755165.679214541</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>2.02</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="B204" t="s">
         <v>8</v>
@@ -3995,15 +3999,15 @@
         <v>28</v>
       </c>
       <c r="D204">
-        <v>10361224.380000001</v>
+        <v>10309931.189999999</v>
       </c>
       <c r="E204">
-        <v>24987425.956729561</v>
+        <v>24871555.141624931</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>2.0299999999999998</v>
+        <v>2.02</v>
       </c>
       <c r="B205" t="s">
         <v>8</v>
@@ -4012,15 +4016,15 @@
         <v>28</v>
       </c>
       <c r="D205">
-        <v>10412517.57</v>
+        <v>10361224.380000001</v>
       </c>
       <c r="E205">
-        <v>25102777.970955569</v>
+        <v>24987425.956729561</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>2.04</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="B206" t="s">
         <v>8</v>
@@ -4029,15 +4033,15 @@
         <v>28</v>
       </c>
       <c r="D206">
-        <v>10463810.76</v>
+        <v>10412517.57</v>
       </c>
       <c r="E206">
-        <v>25217611.081525389</v>
+        <v>25102777.970955569</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>2.0499999999999998</v>
+        <v>2.04</v>
       </c>
       <c r="B207" t="s">
         <v>8</v>
@@ -4046,15 +4050,15 @@
         <v>28</v>
       </c>
       <c r="D207">
-        <v>10515103.949999999</v>
+        <v>10463810.76</v>
       </c>
       <c r="E207">
-        <v>25331925.235446841</v>
+        <v>25217611.081525389</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>2.06</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="B208" t="s">
         <v>8</v>
@@ -4063,15 +4067,15 @@
         <v>28</v>
       </c>
       <c r="D208">
-        <v>10566397.140000001</v>
+        <v>10515103.949999999</v>
       </c>
       <c r="E208">
-        <v>25445720.42851891</v>
+        <v>25331925.235446841</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>2.0699999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="B209" t="s">
         <v>8</v>
@@ -4080,15 +4084,15 @@
         <v>28</v>
       </c>
       <c r="D209">
-        <v>10617690.33</v>
+        <v>10566397.140000001</v>
       </c>
       <c r="E209">
-        <v>25558996.704353038</v>
+        <v>25445720.42851891</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>2.08</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="B210" t="s">
         <v>8</v>
@@ -4097,15 +4101,15 @@
         <v>28</v>
       </c>
       <c r="D210">
-        <v>10668983.52</v>
+        <v>10617690.33</v>
       </c>
       <c r="E210">
-        <v>25671754.153409541</v>
+        <v>25558996.704353038</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="B211" t="s">
         <v>8</v>
@@ -4114,15 +4118,15 @@
         <v>28</v>
       </c>
       <c r="D211">
-        <v>10720276.710000001</v>
+        <v>10668983.52</v>
       </c>
       <c r="E211">
-        <v>25783992.91204891</v>
+        <v>25671754.153409541</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="B212" t="s">
         <v>8</v>
@@ -4131,15 +4135,15 @@
         <v>28</v>
       </c>
       <c r="D212">
-        <v>10771569.9</v>
+        <v>10720276.710000001</v>
       </c>
       <c r="E212">
-        <v>25895713.16159815</v>
+        <v>25783992.91204891</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="B213" t="s">
         <v>8</v>
@@ -4148,15 +4152,15 @@
         <v>28</v>
       </c>
       <c r="D213">
-        <v>10822863.09</v>
+        <v>10771569.9</v>
       </c>
       <c r="E213">
-        <v>26006915.1274314</v>
+        <v>25895713.16159815</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="B214" t="s">
         <v>8</v>
@@ -4165,15 +4169,15 @@
         <v>28</v>
       </c>
       <c r="D214">
-        <v>10874156.279999999</v>
+        <v>10822863.09</v>
       </c>
       <c r="E214">
-        <v>26117599.078065101</v>
+        <v>26006915.1274314</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="B215" t="s">
         <v>8</v>
@@ -4182,15 +4186,15 @@
         <v>28</v>
       </c>
       <c r="D215">
-        <v>10925449.470000001</v>
+        <v>10874156.279999999</v>
       </c>
       <c r="E215">
-        <v>26227765.324267201</v>
+        <v>26117599.078065101</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="B216" t="s">
         <v>8</v>
@@ -4199,15 +4203,15 @@
         <v>28</v>
       </c>
       <c r="D216">
-        <v>10976742.66</v>
+        <v>10925449.470000001</v>
       </c>
       <c r="E216">
-        <v>26337414.218180422</v>
+        <v>26227765.324267201</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="B217" t="s">
         <v>8</v>
@@ -4216,15 +4220,15 @@
         <v>28</v>
       </c>
       <c r="D217">
-        <v>11028035.85</v>
+        <v>10976742.66</v>
       </c>
       <c r="E217">
-        <v>26446546.15245913</v>
+        <v>26337414.218180422</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="B218" t="s">
         <v>8</v>
@@ -4233,15 +4237,15 @@
         <v>28</v>
       </c>
       <c r="D218">
-        <v>11079329.039999999</v>
+        <v>11028035.85</v>
       </c>
       <c r="E218">
-        <v>26555161.55941996</v>
+        <v>26446546.15245913</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="B219" t="s">
         <v>8</v>
@@ -4250,15 +4254,15 @@
         <v>28</v>
       </c>
       <c r="D219">
-        <v>11130622.23</v>
+        <v>11079329.039999999</v>
       </c>
       <c r="E219">
-        <v>26663260.910205599</v>
+        <v>26555161.55941996</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>2.1800000000000002</v>
+        <v>2.17</v>
       </c>
       <c r="B220" t="s">
         <v>8</v>
@@ -4267,15 +4271,15 @@
         <v>28</v>
       </c>
       <c r="D220">
-        <v>11181915.42</v>
+        <v>11130622.23</v>
       </c>
       <c r="E220">
-        <v>26770844.71396194</v>
+        <v>26663260.910205599</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>2.19</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="B221" t="s">
         <v>8</v>
@@ -4284,15 +4288,15 @@
         <v>28</v>
       </c>
       <c r="D221">
-        <v>11233208.609999999</v>
+        <v>11181915.42</v>
       </c>
       <c r="E221">
-        <v>26877913.51702806</v>
+        <v>26770844.71396194</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>2.2000000000000002</v>
+        <v>2.19</v>
       </c>
       <c r="B222" t="s">
         <v>8</v>
@@ -4301,15 +4305,15 @@
         <v>28</v>
       </c>
       <c r="D222">
-        <v>11284501.800000001</v>
+        <v>11233208.609999999</v>
       </c>
       <c r="E222">
-        <v>26984467.90213906</v>
+        <v>26877913.51702806</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>2.21</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B223" t="s">
         <v>8</v>
@@ -4318,15 +4322,15 @@
         <v>28</v>
       </c>
       <c r="D223">
-        <v>11335794.99</v>
+        <v>11284501.800000001</v>
       </c>
       <c r="E223">
-        <v>27090508.48764164</v>
+        <v>26984467.90213906</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>2.2200000000000002</v>
+        <v>2.21</v>
       </c>
       <c r="B224" t="s">
         <v>8</v>
@@ -4335,15 +4339,15 @@
         <v>28</v>
       </c>
       <c r="D224">
-        <v>11387088.18</v>
+        <v>11335794.99</v>
       </c>
       <c r="E224">
-        <v>27196035.926721878</v>
+        <v>27090508.48764164</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>2.23</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="B225" t="s">
         <v>8</v>
@@ -4352,15 +4356,15 @@
         <v>28</v>
       </c>
       <c r="D225">
-        <v>11438381.369999999</v>
+        <v>11387088.18</v>
       </c>
       <c r="E225">
-        <v>27301050.906645481</v>
+        <v>27196035.926721878</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>2.2400000000000002</v>
+        <v>2.23</v>
       </c>
       <c r="B226" t="s">
         <v>8</v>
@@ -4369,15 +4373,15 @@
         <v>28</v>
       </c>
       <c r="D226">
-        <v>11489674.560000001</v>
+        <v>11438381.369999999</v>
       </c>
       <c r="E226">
-        <v>27405554.14801003</v>
+        <v>27301050.906645481</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>2.25</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="B227" t="s">
         <v>8</v>
@@ -4386,15 +4390,15 @@
         <v>28</v>
       </c>
       <c r="D227">
-        <v>11540967.75</v>
+        <v>11489674.560000001</v>
       </c>
       <c r="E227">
-        <v>27509546.40400913</v>
+        <v>27405554.14801003</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>2.2599999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="B228" t="s">
         <v>8</v>
@@ -4403,15 +4407,15 @@
         <v>28</v>
       </c>
       <c r="D228">
-        <v>11592260.939999999</v>
+        <v>11540967.75</v>
       </c>
       <c r="E228">
-        <v>27613028.459708329</v>
+        <v>27509546.40400913</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>2.27</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="B229" t="s">
         <v>8</v>
@@ -4420,15 +4424,15 @@
         <v>28</v>
       </c>
       <c r="D229">
-        <v>11643554.130000001</v>
+        <v>11592260.939999999</v>
       </c>
       <c r="E229">
-        <v>27716001.131332681</v>
+        <v>27613028.459708329</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>2.2799999999999998</v>
+        <v>2.27</v>
       </c>
       <c r="B230" t="s">
         <v>8</v>
@@ -4437,15 +4441,15 @@
         <v>28</v>
       </c>
       <c r="D230">
-        <v>11694847.32</v>
+        <v>11643554.130000001</v>
       </c>
       <c r="E230">
-        <v>27818465.265565511</v>
+        <v>27716001.131332681</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
-        <v>2.29</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="B231" t="s">
         <v>8</v>
@@ -4454,15 +4458,15 @@
         <v>28</v>
       </c>
       <c r="D231">
-        <v>11746140.51</v>
+        <v>11694847.32</v>
       </c>
       <c r="E231">
-        <v>27920421.73885873</v>
+        <v>27818465.265565511</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
-        <v>2.2999999999999998</v>
+        <v>2.29</v>
       </c>
       <c r="B232" t="s">
         <v>8</v>
@@ -4471,15 +4475,15 @@
         <v>28</v>
       </c>
       <c r="D232">
-        <v>11797433.699999999</v>
+        <v>11746140.51</v>
       </c>
       <c r="E232">
-        <v>28021871.45675385</v>
+        <v>27920421.73885873</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
-        <v>2.31</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B233" t="s">
         <v>8</v>
@@ -4488,15 +4492,15 @@
         <v>28</v>
       </c>
       <c r="D233">
-        <v>11848726.890000001</v>
+        <v>11797433.699999999</v>
       </c>
       <c r="E233">
-        <v>28122815.353214402</v>
+        <v>28021871.45675385</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
-        <v>2.3199999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="B234" t="s">
         <v>8</v>
@@ -4505,15 +4509,15 @@
         <v>28</v>
       </c>
       <c r="D234">
-        <v>11900020.08</v>
+        <v>11848726.890000001</v>
       </c>
       <c r="E234">
-        <v>28223254.389968611</v>
+        <v>28122815.353214402</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
-        <v>2.33</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="B235" t="s">
         <v>8</v>
@@ -4522,15 +4526,15 @@
         <v>28</v>
       </c>
       <c r="D235">
-        <v>11951313.27</v>
+        <v>11900020.08</v>
       </c>
       <c r="E235">
-        <v>28323189.55586312</v>
+        <v>28223254.389968611</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="B236" t="s">
         <v>8</v>
@@ -4539,15 +4543,15 @@
         <v>28</v>
       </c>
       <c r="D236">
-        <v>12002606.460000001</v>
+        <v>11951313.27</v>
       </c>
       <c r="E236">
-        <v>28422621.86622683</v>
+        <v>28323189.55586312</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="B237" t="s">
         <v>8</v>
@@ -4556,15 +4560,15 @@
         <v>28</v>
       </c>
       <c r="D237">
-        <v>12053899.65</v>
+        <v>12002606.460000001</v>
       </c>
       <c r="E237">
-        <v>28521552.36224537</v>
+        <v>28422621.86622683</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="B238" t="s">
         <v>8</v>
@@ -4573,15 +4577,15 @@
         <v>28</v>
       </c>
       <c r="D238">
-        <v>12105192.84</v>
+        <v>12053899.65</v>
       </c>
       <c r="E238">
-        <v>28619982.110345431</v>
+        <v>28521552.36224537</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="B239" t="s">
         <v>8</v>
@@ -4590,15 +4594,15 @@
         <v>28</v>
       </c>
       <c r="D239">
-        <v>12156486.029999999</v>
+        <v>12105192.84</v>
       </c>
       <c r="E239">
-        <v>28717912.20158932</v>
+        <v>28619982.110345431</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="B240" t="s">
         <v>8</v>
@@ -4607,15 +4611,15 @@
         <v>28</v>
       </c>
       <c r="D240">
-        <v>12207779.220000001</v>
+        <v>12156486.029999999</v>
       </c>
       <c r="E240">
-        <v>28815343.751079239</v>
+        <v>28717912.20158932</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
-        <v>2.39</v>
+        <v>2.38</v>
       </c>
       <c r="B241" t="s">
         <v>8</v>
@@ -4624,15 +4628,15 @@
         <v>28</v>
       </c>
       <c r="D241">
-        <v>12259072.41</v>
+        <v>12207779.220000001</v>
       </c>
       <c r="E241">
-        <v>28912277.897371471</v>
+        <v>28815343.751079239</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="B242" t="s">
         <v>8</v>
@@ -4641,15 +4645,15 @@
         <v>28</v>
       </c>
       <c r="D242">
-        <v>12310365.6</v>
+        <v>12259072.41</v>
       </c>
       <c r="E242">
-        <v>29008715.801899951</v>
+        <v>28912277.897371471</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="B243" t="s">
         <v>8</v>
@@ -4658,15 +4662,15 @@
         <v>28</v>
       </c>
       <c r="D243">
-        <v>12361658.789999999</v>
+        <v>12310365.6</v>
       </c>
       <c r="E243">
-        <v>29104658.648409411</v>
+        <v>29008715.801899951</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
-        <v>2.42</v>
+        <v>2.41</v>
       </c>
       <c r="B244" t="s">
         <v>8</v>
@@ -4675,15 +4679,15 @@
         <v>28</v>
       </c>
       <c r="D244">
-        <v>12412951.98</v>
+        <v>12361658.789999999</v>
       </c>
       <c r="E244">
-        <v>29200107.64239781</v>
+        <v>29104658.648409411</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
-        <v>2.4300000000000002</v>
+        <v>2.42</v>
       </c>
       <c r="B245" t="s">
         <v>8</v>
@@ -4692,15 +4696,15 @@
         <v>28</v>
       </c>
       <c r="D245">
-        <v>12464245.17</v>
+        <v>12412951.98</v>
       </c>
       <c r="E245">
-        <v>29295064.010567918</v>
+        <v>29200107.64239781</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
-        <v>2.44</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="B246" t="s">
         <v>8</v>
@@ -4709,15 +4713,15 @@
         <v>28</v>
       </c>
       <c r="D246">
-        <v>12515538.359999999</v>
+        <v>12464245.17</v>
       </c>
       <c r="E246">
-        <v>29389529.00028795</v>
+        <v>29295064.010567918</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
-        <v>2.4500000000000002</v>
+        <v>2.44</v>
       </c>
       <c r="B247" t="s">
         <v>8</v>
@@ -4726,15 +4730,15 @@
         <v>28</v>
       </c>
       <c r="D247">
-        <v>12566831.550000001</v>
+        <v>12515538.359999999</v>
       </c>
       <c r="E247">
-        <v>29483503.87906117</v>
+        <v>29389529.00028795</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
-        <v>2.46</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="B248" t="s">
         <v>8</v>
@@ -4743,15 +4747,15 @@
         <v>28</v>
       </c>
       <c r="D248">
-        <v>12618124.74</v>
+        <v>12566831.550000001</v>
       </c>
       <c r="E248">
-        <v>29576989.934004132</v>
+        <v>29483503.87906117</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
-        <v>2.4700000000000002</v>
+        <v>2.46</v>
       </c>
       <c r="B249" t="s">
         <v>8</v>
@@ -4760,15 +4764,15 @@
         <v>28</v>
       </c>
       <c r="D249">
-        <v>12669417.93</v>
+        <v>12618124.74</v>
       </c>
       <c r="E249">
-        <v>29669988.471333761</v>
+        <v>29576989.934004132</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
-        <v>2.48</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="B250" t="s">
         <v>8</v>
@@ -4777,15 +4781,15 @@
         <v>28</v>
       </c>
       <c r="D250">
-        <v>12720711.119999999</v>
+        <v>12669417.93</v>
       </c>
       <c r="E250">
-        <v>29762500.815862801</v>
+        <v>29669988.471333761</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
-        <v>2.4900000000000002</v>
+        <v>2.48</v>
       </c>
       <c r="B251" t="s">
         <v>8</v>
@@ -4794,15 +4798,15 @@
         <v>28</v>
       </c>
       <c r="D251">
-        <v>12772004.310000001</v>
+        <v>12720711.119999999</v>
       </c>
       <c r="E251">
-        <v>29854528.310503781</v>
+        <v>29762500.815862801</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
-        <v>2.5</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="B252" t="s">
         <v>8</v>
@@ -4811,15 +4815,15 @@
         <v>28</v>
       </c>
       <c r="D252">
-        <v>12823297.5</v>
+        <v>12772004.310000001</v>
       </c>
       <c r="E252">
-        <v>29946072.315781169</v>
+        <v>29854528.310503781</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
-        <v>2.5099999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="B253" t="s">
         <v>8</v>
@@ -4828,15 +4832,15 @@
         <v>28</v>
       </c>
       <c r="D253">
-        <v>12874590.689999999</v>
+        <v>12823297.5</v>
       </c>
       <c r="E253">
-        <v>30037134.209351819</v>
+        <v>29946072.315781169</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
-        <v>2.52</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="B254" t="s">
         <v>8</v>
@@ -4845,15 +4849,15 @@
         <v>28</v>
       </c>
       <c r="D254">
-        <v>12925883.880000001</v>
+        <v>12874590.689999999</v>
       </c>
       <c r="E254">
-        <v>30127715.38553324</v>
+        <v>30037134.209351819</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
-        <v>2.5299999999999998</v>
+        <v>2.52</v>
       </c>
       <c r="B255" t="s">
         <v>8</v>
@@ -4862,15 +4866,15 @@
         <v>28</v>
       </c>
       <c r="D255">
-        <v>12977177.07</v>
+        <v>12925883.880000001</v>
       </c>
       <c r="E255">
-        <v>30217817.254840031</v>
+        <v>30127715.38553324</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
-        <v>2.54</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="B256" t="s">
         <v>8</v>
@@ -4879,15 +4883,15 @@
         <v>28</v>
       </c>
       <c r="D256">
-        <v>13028470.26</v>
+        <v>12977177.07</v>
       </c>
       <c r="E256">
-        <v>30307441.24352802</v>
+        <v>30217817.254840031</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
-        <v>2.5499999999999998</v>
+        <v>2.54</v>
       </c>
       <c r="B257" t="s">
         <v>8</v>
@@ -4896,15 +4900,15 @@
         <v>28</v>
       </c>
       <c r="D257">
-        <v>13079763.449999999</v>
+        <v>13028470.26</v>
       </c>
       <c r="E257">
-        <v>30396588.793145992</v>
+        <v>30307441.24352802</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
-        <v>2.56</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="B258" t="s">
         <v>8</v>
@@ -4913,15 +4917,15 @@
         <v>28</v>
       </c>
       <c r="D258">
-        <v>13131056.640000001</v>
+        <v>13079763.449999999</v>
       </c>
       <c r="E258">
-        <v>30485261.360095199</v>
+        <v>30396588.793145992</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="B259" t="s">
         <v>8</v>
@@ -4930,15 +4934,15 @@
         <v>28</v>
       </c>
       <c r="D259">
-        <v>13182349.83</v>
+        <v>13131056.640000001</v>
       </c>
       <c r="E259">
-        <v>30573460.415196192</v>
+        <v>30485261.360095199</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
-        <v>2.58</v>
+        <v>2.57</v>
       </c>
       <c r="B260" t="s">
         <v>8</v>
@@ -4947,15 +4951,15 @@
         <v>28</v>
       </c>
       <c r="D260">
-        <v>13233643.02</v>
+        <v>13182349.83</v>
       </c>
       <c r="E260">
-        <v>30661187.44326305</v>
+        <v>30573460.415196192</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="B261" t="s">
         <v>8</v>
@@ -4964,15 +4968,15 @@
         <v>28</v>
       </c>
       <c r="D261">
-        <v>13284936.210000001</v>
+        <v>13233643.02</v>
       </c>
       <c r="E261">
-        <v>30748443.942684911</v>
+        <v>30661187.44326305</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="B262" t="s">
         <v>8</v>
@@ -4981,15 +4985,15 @@
         <v>28</v>
       </c>
       <c r="D262">
-        <v>13336229.4</v>
+        <v>13284936.210000001</v>
       </c>
       <c r="E262">
-        <v>30835231.425014589</v>
+        <v>30748443.942684911</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
-        <v>2.61</v>
+        <v>2.6</v>
       </c>
       <c r="B263" t="s">
         <v>8</v>
@@ -4998,15 +5002,15 @@
         <v>28</v>
       </c>
       <c r="D263">
-        <v>13387522.59</v>
+        <v>13336229.4</v>
       </c>
       <c r="E263">
-        <v>30921551.414564211</v>
+        <v>30835231.425014589</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="B264" t="s">
         <v>8</v>
@@ -5015,15 +5019,15 @@
         <v>28</v>
       </c>
       <c r="D264">
-        <v>13438815.779999999</v>
+        <v>13387522.59</v>
       </c>
       <c r="E264">
-        <v>31007405.448007889</v>
+        <v>30921551.414564211</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="B265" t="s">
         <v>8</v>
@@ -5032,15 +5036,15 @@
         <v>28</v>
       </c>
       <c r="D265">
-        <v>13490108.970000001</v>
+        <v>13438815.779999999</v>
       </c>
       <c r="E265">
-        <v>31092795.07399112</v>
+        <v>31007405.448007889</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="B266" t="s">
         <v>8</v>
@@ -5049,15 +5053,15 @@
         <v>28</v>
       </c>
       <c r="D266">
-        <v>13541402.16</v>
+        <v>13490108.970000001</v>
       </c>
       <c r="E266">
-        <v>31177721.852747008</v>
+        <v>31092795.07399112</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="B267" t="s">
         <v>8</v>
@@ -5066,15 +5070,15 @@
         <v>28</v>
       </c>
       <c r="D267">
-        <v>13592695.35</v>
+        <v>13541402.16</v>
       </c>
       <c r="E267">
-        <v>31262187.35571903</v>
+        <v>31177721.852747008</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="B268" t="s">
         <v>8</v>
@@ -5083,15 +5087,15 @@
         <v>28</v>
       </c>
       <c r="D268">
-        <v>13643988.539999999</v>
+        <v>13592695.35</v>
       </c>
       <c r="E268">
-        <v>31346193.165190428</v>
+        <v>31262187.35571903</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="B269" t="s">
         <v>8</v>
@@ -5100,15 +5104,15 @@
         <v>28</v>
       </c>
       <c r="D269">
-        <v>13695281.73</v>
+        <v>13643988.539999999</v>
       </c>
       <c r="E269">
-        <v>31429740.873919941</v>
+        <v>31346193.165190428</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="B270" t="s">
         <v>8</v>
@@ -5117,15 +5121,15 @@
         <v>28</v>
       </c>
       <c r="D270">
-        <v>13746574.92</v>
+        <v>13695281.73</v>
       </c>
       <c r="E270">
-        <v>31512832.084784001</v>
+        <v>31429740.873919941</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="B271" t="s">
         <v>8</v>
@@ -5134,15 +5138,15 @@
         <v>28</v>
       </c>
       <c r="D271">
-        <v>13797868.109999999</v>
+        <v>13746574.92</v>
       </c>
       <c r="E271">
-        <v>31595468.410425041</v>
+        <v>31512832.084784001</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="B272" t="s">
         <v>8</v>
@@ -5151,15 +5155,15 @@
         <v>28</v>
       </c>
       <c r="D272">
-        <v>13849161.300000001</v>
+        <v>13797868.109999999</v>
       </c>
       <c r="E272">
-        <v>31677651.47290612</v>
+        <v>31595468.410425041</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="B273" t="s">
         <v>8</v>
@@ -5168,15 +5172,15 @@
         <v>28</v>
       </c>
       <c r="D273">
-        <v>13900454.49</v>
+        <v>13849161.300000001</v>
       </c>
       <c r="E273">
-        <v>31759382.903371438</v>
+        <v>31677651.47290612</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
-        <v>2.72</v>
+        <v>2.71</v>
       </c>
       <c r="B274" t="s">
         <v>8</v>
@@ -5185,15 +5189,15 @@
         <v>28</v>
       </c>
       <c r="D274">
-        <v>13951747.68</v>
+        <v>13900454.49</v>
       </c>
       <c r="E274">
-        <v>31840664.341712989</v>
+        <v>31759382.903371438</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="B275" t="s">
         <v>8</v>
@@ -5202,15 +5206,15 @@
         <v>28</v>
       </c>
       <c r="D275">
-        <v>14003040.869999999</v>
+        <v>13951747.68</v>
       </c>
       <c r="E275">
-        <v>31921497.436242901</v>
+        <v>31840664.341712989</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="B276" t="s">
         <v>8</v>
@@ -5219,15 +5223,15 @@
         <v>28</v>
       </c>
       <c r="D276">
-        <v>14054334.060000001</v>
+        <v>14003040.869999999</v>
       </c>
       <c r="E276">
-        <v>32001883.843371879</v>
+        <v>31921497.436242901</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="B277" t="s">
         <v>8</v>
@@ -5236,15 +5240,15 @@
         <v>28</v>
       </c>
       <c r="D277">
-        <v>14105627.25</v>
+        <v>14054334.060000001</v>
       </c>
       <c r="E277">
-        <v>32081825.227293011</v>
+        <v>32001883.843371879</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="B278" t="s">
         <v>8</v>
@@ -5253,15 +5257,15 @@
         <v>28</v>
       </c>
       <c r="D278">
-        <v>14156920.439999999</v>
+        <v>14105627.25</v>
       </c>
       <c r="E278">
-        <v>32161323.25967145</v>
+        <v>32081825.227293011</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="B279" t="s">
         <v>8</v>
@@ -5270,15 +5274,15 @@
         <v>28</v>
       </c>
       <c r="D279">
-        <v>14208213.630000001</v>
+        <v>14156920.439999999</v>
       </c>
       <c r="E279">
-        <v>32240379.619339559</v>
+        <v>32161323.25967145</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="B280" t="s">
         <v>8</v>
@@ -5287,15 +5291,15 @@
         <v>28</v>
       </c>
       <c r="D280">
-        <v>14259506.82</v>
+        <v>14208213.630000001</v>
       </c>
       <c r="E280">
-        <v>32318995.991997451</v>
+        <v>32240379.619339559</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="B281" t="s">
         <v>8</v>
@@ -5304,15 +5308,15 @@
         <v>28</v>
       </c>
       <c r="D281">
-        <v>14310800.01</v>
+        <v>14259506.82</v>
       </c>
       <c r="E281">
-        <v>32397174.06991905</v>
+        <v>32318995.991997451</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="B282" t="s">
         <v>8</v>
@@ -5321,15 +5325,15 @@
         <v>28</v>
       </c>
       <c r="D282">
-        <v>14362093.199999999</v>
+        <v>14310800.01</v>
       </c>
       <c r="E282">
-        <v>32474915.55166328</v>
+        <v>32397174.06991905</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="B283" t="s">
         <v>8</v>
@@ -5338,15 +5342,15 @@
         <v>28</v>
       </c>
       <c r="D283">
-        <v>14413386.390000001</v>
+        <v>14362093.199999999</v>
       </c>
       <c r="E283">
-        <v>32552222.141790651</v>
+        <v>32474915.55166328</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
-        <v>2.82</v>
+        <v>2.81</v>
       </c>
       <c r="B284" t="s">
         <v>8</v>
@@ -5355,15 +5359,15 @@
         <v>28</v>
       </c>
       <c r="D284">
-        <v>14464679.58</v>
+        <v>14413386.390000001</v>
       </c>
       <c r="E284">
-        <v>32629095.550584778</v>
+        <v>32552222.141790651</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="B285" t="s">
         <v>8</v>
@@ -5372,15 +5376,15 @@
         <v>28</v>
       </c>
       <c r="D285">
-        <v>14515972.77</v>
+        <v>14464679.58</v>
       </c>
       <c r="E285">
-        <v>32705537.493779201</v>
+        <v>32629095.550584778</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="B286" t="s">
         <v>8</v>
@@ -5389,15 +5393,15 @@
         <v>28</v>
       </c>
       <c r="D286">
-        <v>14567265.960000001</v>
+        <v>14515972.77</v>
       </c>
       <c r="E286">
-        <v>32781549.692288939</v>
+        <v>32705537.493779201</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>2.85</v>
+        <v>2.84</v>
       </c>
       <c r="B287" t="s">
         <v>8</v>
@@ -5406,15 +5410,15 @@
         <v>28</v>
       </c>
       <c r="D287">
-        <v>14618559.15</v>
+        <v>14567265.960000001</v>
       </c>
       <c r="E287">
-        <v>32857133.871947199</v>
+        <v>32781549.692288939</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="B288" t="s">
         <v>8</v>
@@ -5423,15 +5427,15 @@
         <v>28</v>
       </c>
       <c r="D288">
-        <v>14669852.34</v>
+        <v>14618559.15</v>
       </c>
       <c r="E288">
-        <v>32932291.7632467</v>
+        <v>32857133.871947199</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>2.87</v>
+        <v>2.86</v>
       </c>
       <c r="B289" t="s">
         <v>8</v>
@@ -5440,15 +5444,15 @@
         <v>28</v>
       </c>
       <c r="D289">
-        <v>14721145.529999999</v>
+        <v>14669852.34</v>
       </c>
       <c r="E289">
-        <v>33007025.101085909</v>
+        <v>32932291.7632467</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="B290" t="s">
         <v>8</v>
@@ -5457,15 +5461,15 @@
         <v>28</v>
       </c>
       <c r="D290">
-        <v>14772438.720000001</v>
+        <v>14721145.529999999</v>
       </c>
       <c r="E290">
-        <v>33081335.624519952</v>
+        <v>33007025.101085909</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="B291" t="s">
         <v>8</v>
@@ -5474,15 +5478,15 @@
         <v>28</v>
       </c>
       <c r="D291">
-        <v>14823731.91</v>
+        <v>14772438.720000001</v>
       </c>
       <c r="E291">
-        <v>33155225.076516021</v>
+        <v>33081335.624519952</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="B292" t="s">
         <v>8</v>
@@ -5491,15 +5495,15 @@
         <v>28</v>
       </c>
       <c r="D292">
-        <v>14875025.1</v>
+        <v>14823731.91</v>
       </c>
       <c r="E292">
-        <v>33228695.203713559</v>
+        <v>33155225.076516021</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="B293" t="s">
         <v>8</v>
@@ -5508,15 +5512,15 @@
         <v>28</v>
       </c>
       <c r="D293">
-        <v>14926318.289999999</v>
+        <v>14875025.1</v>
       </c>
       <c r="E293">
-        <v>33301747.756188631</v>
+        <v>33228695.203713559</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="B294" t="s">
         <v>8</v>
@@ -5525,15 +5529,15 @@
         <v>28</v>
       </c>
       <c r="D294">
-        <v>14977611.48</v>
+        <v>14926318.289999999</v>
       </c>
       <c r="E294">
-        <v>33374384.487223011</v>
+        <v>33301747.756188631</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
       <c r="B295" t="s">
         <v>8</v>
@@ -5542,15 +5546,15 @@
         <v>28</v>
       </c>
       <c r="D295">
-        <v>15028904.67</v>
+        <v>14977611.48</v>
       </c>
       <c r="E295">
-        <v>33446607.153077379</v>
+        <v>33374384.487223011</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="B296" t="s">
         <v>8</v>
@@ -5559,15 +5563,15 @@
         <v>28</v>
       </c>
       <c r="D296">
-        <v>15080197.859999999</v>
+        <v>15028904.67</v>
       </c>
       <c r="E296">
-        <v>33518417.51276895</v>
+        <v>33446607.153077379</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
       <c r="B297" t="s">
         <v>8</v>
@@ -5576,15 +5580,15 @@
         <v>28</v>
       </c>
       <c r="D297">
-        <v>15131491.050000001</v>
+        <v>15080197.859999999</v>
       </c>
       <c r="E297">
-        <v>33589817.327853203</v>
+        <v>33518417.51276895</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="B298" t="s">
         <v>8</v>
@@ -5593,15 +5597,15 @@
         <v>28</v>
       </c>
       <c r="D298">
-        <v>15182784.24</v>
+        <v>15131491.050000001</v>
       </c>
       <c r="E298">
-        <v>33660808.362209849</v>
+        <v>33589817.327853203</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="B299" t="s">
         <v>8</v>
@@ -5610,15 +5614,15 @@
         <v>28</v>
       </c>
       <c r="D299">
-        <v>15234077.43</v>
+        <v>15182784.24</v>
       </c>
       <c r="E299">
-        <v>33731392.381832868</v>
+        <v>33660808.362209849</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="B300" t="s">
         <v>8</v>
@@ -5627,15 +5631,15 @@
         <v>28</v>
       </c>
       <c r="D300">
-        <v>15285370.619999999</v>
+        <v>15234077.43</v>
       </c>
       <c r="E300">
-        <v>33801571.154624507</v>
+        <v>33731392.381832868</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="B301" t="s">
         <v>8</v>
@@ -5644,15 +5648,15 @@
         <v>28</v>
       </c>
       <c r="D301">
-        <v>15336663.810000001</v>
+        <v>15285370.619999999</v>
       </c>
       <c r="E301">
-        <v>33871346.450193308</v>
+        <v>33801571.154624507</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="B302" t="s">
         <v>8</v>
@@ -5661,10 +5665,10 @@
         <v>28</v>
       </c>
       <c r="D302">
-        <v>15387957</v>
+        <v>15336663.810000001</v>
       </c>
       <c r="E302">
-        <v>33940720.039656021</v>
+        <v>33871346.450193308</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
@@ -7372,16 +7376,16 @@
         <v>1</v>
       </c>
       <c r="B403" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C403" t="s">
         <v>28</v>
       </c>
       <c r="D403">
-        <v>1935928</v>
+        <v>553904</v>
       </c>
       <c r="E403">
-        <v>1041722.547997836</v>
+        <v>825766.9705806172</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
@@ -12486,19 +12490,19 @@
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A704">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B704" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C704" t="s">
         <v>28</v>
       </c>
       <c r="D704">
-        <v>12622250</v>
+        <v>15387957</v>
       </c>
       <c r="E704">
-        <v>11272592.50257837</v>
+        <v>33940720.039656021</v>
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.3">
@@ -17606,16 +17610,16 @@
         <v>1</v>
       </c>
       <c r="B1005" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1005" t="s">
         <v>28</v>
       </c>
       <c r="D1005">
-        <v>173580</v>
+        <v>1935928</v>
       </c>
       <c r="E1005">
-        <v>2349813.9298681291</v>
+        <v>1041722.547997836</v>
       </c>
     </row>
     <row r="1006" spans="1:5" x14ac:dyDescent="0.3">
@@ -22723,16 +22727,16 @@
         <v>1</v>
       </c>
       <c r="B1306" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1306" t="s">
         <v>28</v>
       </c>
       <c r="D1306">
-        <v>418674.46</v>
+        <v>12622250</v>
       </c>
       <c r="E1306">
-        <v>910223.44076149049</v>
+        <v>11272592.50257837</v>
       </c>
     </row>
     <row r="1307" spans="1:5" x14ac:dyDescent="0.3">
@@ -27840,16 +27844,13 @@
         <v>1</v>
       </c>
       <c r="B1607" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C1607" t="s">
         <v>28</v>
       </c>
-      <c r="D1607">
-        <v>63044.000000000007</v>
-      </c>
       <c r="E1607">
-        <v>125718.5236697419</v>
+        <v>124077577.10566053</v>
       </c>
     </row>
     <row r="1608" spans="1:5" x14ac:dyDescent="0.3">
@@ -32957,16 +32958,16 @@
         <v>1</v>
       </c>
       <c r="B1908" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C1908" t="s">
         <v>28</v>
       </c>
       <c r="D1908">
-        <v>553904</v>
+        <v>173580</v>
       </c>
       <c r="E1908">
-        <v>825766.9705806172</v>
+        <v>2349813.9298681291</v>
       </c>
     </row>
     <row r="1909" spans="1:5" x14ac:dyDescent="0.3">
@@ -38074,16 +38075,16 @@
         <v>1</v>
       </c>
       <c r="B2209" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C2209" t="s">
         <v>28</v>
       </c>
       <c r="D2209">
-        <v>3414722</v>
+        <v>418674.46</v>
       </c>
       <c r="E2209">
-        <v>1047398.152302259</v>
+        <v>910223.44076149049</v>
       </c>
     </row>
     <row r="2210" spans="1:5" x14ac:dyDescent="0.3">
@@ -41491,16 +41492,16 @@
         <v>1</v>
       </c>
       <c r="B2410" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C2410" t="s">
         <v>28</v>
       </c>
       <c r="D2410">
-        <v>5908456.052650501</v>
+        <v>3414722</v>
       </c>
       <c r="E2410">
-        <v>124077577.10566053</v>
+        <v>1047398.152302259</v>
       </c>
     </row>
   </sheetData>
